--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145895.0166961096</v>
+        <v>25211713.34622581</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145895.0166961096</v>
+        <v>25211713.34622581</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8860.043246847563</v>
+        <v>966522.9144375125</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8860.043246847563</v>
+        <v>966522.9144375125</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264658379.326452</v>
+        <v>50093557.45615648</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9017.103661117433</v>
+        <v>995262.0858961722</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18023.07671349329</v>
+        <v>2029450.286087115</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27029.04976586914</v>
+        <v>3063638.486278061</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36481.65083286633</v>
+        <v>4074158.178152828</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45644.16143304708</v>
+        <v>5107167.315422555</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54816.81203322784</v>
+        <v>6142194.31269228</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63989.46263340861</v>
+        <v>7177221.309962001</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73162.11323358938</v>
+        <v>8212248.307231721</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82548.650361202</v>
+        <v>9247992.95792792</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91516.94847651215</v>
+        <v>10278628.65483342</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100508.0662806837</v>
+        <v>11312720.58145998</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109320.6484142689</v>
+        <v>12343593.40810508</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118147.4657586461</v>
+        <v>13377299.04169768</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>127336.1189242852</v>
+        <v>14376628.05681894</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137443.4338051742</v>
+        <v>15279274.25089822</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>302</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
